--- a/uploads/age.xlsx
+++ b/uploads/age.xlsx
@@ -20,39 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">firstname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,m ,m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m, </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
   </si>
   <si>
     <t xml:space="preserve">pranavi</t>
   </si>
   <si>
-    <t xml:space="preserve">kovid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shivani</t>
-  </si>
-  <si>
     <t xml:space="preserve">nikhila</t>
   </si>
   <si>
-    <t xml:space="preserve">navya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jkxn</t>
+    <t xml:space="preserve">sudha</t>
   </si>
 </sst>
 </file>
@@ -127,13 +109,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -153,13 +139,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -168,68 +154,46 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>27</v>
-      </c>
-    </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>25</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>24</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/uploads/age.xlsx
+++ b/uploads/age.xlsx
@@ -142,10 +142,10 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/uploads/age.xlsx
+++ b/uploads/age.xlsx
@@ -142,10 +142,10 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
